--- a/pythia_ig/temp/pages/all-profiles.xlsx
+++ b/pythia_ig/temp/pages/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T11:15:56-04:00</t>
+    <t>2024-04-30T11:57:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/temp/pages/all-profiles.xlsx
+++ b/pythia_ig/temp/pages/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:57:33-04:00</t>
+    <t>2024-04-30T13:37:40-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/temp/pages/all-profiles.xlsx
+++ b/pythia_ig/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7558" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7588" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:37:40-04:00</t>
+    <t>2024-04-30T19:45:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1400,10 +1400,17 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:assessmentDate</t>
+  </si>
+  <si>
+    <t>assessmentDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhirfli.dev/fhir/ig/pythia/StructureDefinition/assessment-date}
+</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1512,10 +1519,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+    <t>http://fhirfli.dev/fhir/ig/pythia/ValueSet/vaccine-gender</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
@@ -1722,6 +1726,12 @@
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>Patient.contact.organization</t>
@@ -2826,7 +2836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK225"/>
+  <dimension ref="A1:AK226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2838,7 +2848,7 @@
     <col min="1" max="1" width="24.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="87.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="87.9453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="16.29296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -22311,7 +22321,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" t="s" s="2">
@@ -22333,14 +22343,12 @@
         <v>85</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
         <v>70</v>
@@ -22377,19 +22385,17 @@
         <v>70</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AD188" s="2"/>
       <c r="AE188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>71</v>
@@ -22409,46 +22415,44 @@
         <v>402</v>
       </c>
       <c r="B189" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="D189" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I189" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>70</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>85</v>
+        <v>456</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P189" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
         <v>70</v>
       </c>
@@ -22496,7 +22500,7 @@
         <v>70</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>71</v>
@@ -22505,7 +22509,7 @@
         <v>72</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>93</v>
@@ -22516,14 +22520,14 @@
         <v>402</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" t="s" s="2">
@@ -22536,23 +22540,25 @@
         <v>70</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O190" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P190" t="s" s="2">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="Q190" t="s" s="2">
         <v>70</v>
@@ -22601,7 +22607,7 @@
         <v>70</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>71</v>
@@ -22613,7 +22619,7 @@
         <v>70</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="191">
@@ -22621,10 +22627,10 @@
         <v>402</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -22635,38 +22641,34 @@
         <v>71</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I191" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>202</v>
+        <v>462</v>
       </c>
       <c r="M191" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="N191" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="P191" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="Q191" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="R191" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="R191" s="2"/>
       <c r="S191" t="s" s="2">
         <v>70</v>
       </c>
@@ -22710,13 +22712,13 @@
         <v>70</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>70</v>
@@ -22730,10 +22732,10 @@
         <v>402</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -22744,36 +22746,38 @@
         <v>71</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="P192" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Q192" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R192" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M192" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Q192" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R192" s="2"/>
       <c r="S192" t="s" s="2">
         <v>70</v>
       </c>
@@ -22817,13 +22821,13 @@
         <v>70</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>70</v>
@@ -22837,10 +22841,10 @@
         <v>402</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -22863,19 +22867,19 @@
         <v>95</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P193" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P193" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="Q193" t="s" s="2">
         <v>70</v>
@@ -22924,7 +22928,7 @@
         <v>70</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>71</v>
@@ -22944,10 +22948,10 @@
         <v>402</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -22958,7 +22962,7 @@
         <v>71</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>70</v>
@@ -22970,19 +22974,19 @@
         <v>95</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="M194" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O194" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="P194" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="P194" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="Q194" t="s" s="2">
         <v>70</v>
@@ -23007,13 +23011,13 @@
         <v>70</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>487</v>
+        <v>70</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>488</v>
+        <v>70</v>
       </c>
       <c r="AA194" t="s" s="2">
-        <v>489</v>
+        <v>70</v>
       </c>
       <c r="AB194" t="s" s="2">
         <v>70</v>
@@ -23031,13 +23035,13 @@
         <v>70</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>70</v>
@@ -23051,10 +23055,10 @@
         <v>402</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -23077,19 +23081,19 @@
         <v>95</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P195" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>70</v>
@@ -23114,13 +23118,11 @@
         <v>70</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="Z195" s="2"/>
       <c r="AA195" t="s" s="2">
-        <v>70</v>
+        <v>490</v>
       </c>
       <c r="AB195" t="s" s="2">
         <v>70</v>
@@ -23138,7 +23140,7 @@
         <v>70</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>71</v>
@@ -23158,10 +23160,10 @@
         <v>402</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -23178,25 +23180,25 @@
         <v>70</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K196" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>496</v>
+        <v>149</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P196" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q196" t="s" s="2">
         <v>70</v>
@@ -23245,7 +23247,7 @@
         <v>70</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>71</v>
@@ -23265,10 +23267,10 @@
         <v>402</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -23279,31 +23281,31 @@
         <v>71</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K197" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>70</v>
@@ -23352,13 +23354,13 @@
         <v>70</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>70</v>
@@ -23372,10 +23374,10 @@
         <v>402</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -23386,7 +23388,7 @@
         <v>71</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I198" t="s" s="2">
         <v>70</v>
@@ -23395,20 +23397,22 @@
         <v>70</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>119</v>
+        <v>503</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O198" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P198" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q198" t="s" s="2">
         <v>70</v>
@@ -23433,13 +23437,13 @@
         <v>70</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>511</v>
+        <v>70</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>512</v>
+        <v>70</v>
       </c>
       <c r="AA198" t="s" s="2">
-        <v>513</v>
+        <v>70</v>
       </c>
       <c r="AB198" t="s" s="2">
         <v>70</v>
@@ -23457,13 +23461,13 @@
         <v>70</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>70</v>
@@ -23477,10 +23481,10 @@
         <v>402</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23503,19 +23507,17 @@
         <v>70</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>515</v>
+        <v>119</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="Q199" t="s" s="2">
         <v>70</v>
@@ -23540,13 +23542,13 @@
         <v>70</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>70</v>
+        <v>512</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>70</v>
+        <v>513</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>70</v>
+        <v>514</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>70</v>
@@ -23564,7 +23566,7 @@
         <v>70</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>71</v>
@@ -23584,10 +23586,10 @@
         <v>402</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -23598,7 +23600,7 @@
         <v>71</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>70</v>
@@ -23610,19 +23612,19 @@
         <v>70</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P200" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>70</v>
@@ -23671,13 +23673,13 @@
         <v>70</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>70</v>
@@ -23691,10 +23693,10 @@
         <v>402</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -23717,19 +23719,19 @@
         <v>70</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>124</v>
+        <v>522</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P201" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q201" t="s" s="2">
         <v>70</v>
@@ -23778,7 +23780,7 @@
         <v>70</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>71</v>
@@ -23790,7 +23792,7 @@
         <v>70</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202">
@@ -23798,10 +23800,10 @@
         <v>402</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -23812,7 +23814,7 @@
         <v>71</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>70</v>
@@ -23824,16 +23826,20 @@
         <v>70</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P202" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="Q202" t="s" s="2">
         <v>70</v>
       </c>
@@ -23881,19 +23887,19 @@
         <v>70</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>82</v>
+        <v>527</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>70</v>
+        <v>532</v>
       </c>
     </row>
     <row r="203">
@@ -23908,14 +23914,14 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I203" t="s" s="2">
         <v>70</v>
@@ -23927,17 +23933,15 @@
         <v>70</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O203" s="2"/>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
         <v>70</v>
@@ -23986,19 +23990,19 @@
         <v>70</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204">
@@ -24013,7 +24017,7 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -24026,26 +24030,24 @@
         <v>70</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L204" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P204" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>70</v>
       </c>
@@ -24093,7 +24095,7 @@
         <v>70</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>71</v>
@@ -24120,7 +24122,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
@@ -24133,23 +24135,25 @@
         <v>70</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>536</v>
+        <v>130</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O205" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P205" t="s" s="2">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="Q205" t="s" s="2">
         <v>70</v>
@@ -24174,13 +24178,13 @@
         <v>70</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>511</v>
+        <v>70</v>
       </c>
       <c r="Z205" t="s" s="2">
-        <v>539</v>
+        <v>70</v>
       </c>
       <c r="AA205" t="s" s="2">
-        <v>540</v>
+        <v>70</v>
       </c>
       <c r="AB205" t="s" s="2">
         <v>70</v>
@@ -24198,7 +24202,7 @@
         <v>70</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>535</v>
+        <v>133</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>71</v>
@@ -24210,7 +24214,7 @@
         <v>70</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="206">
@@ -24218,10 +24222,10 @@
         <v>402</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -24232,7 +24236,7 @@
         <v>71</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>70</v>
@@ -24244,17 +24248,17 @@
         <v>70</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>471</v>
+        <v>119</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q206" t="s" s="2">
         <v>70</v>
@@ -24279,13 +24283,13 @@
         <v>70</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>70</v>
+        <v>512</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>70</v>
+        <v>540</v>
       </c>
       <c r="AA206" t="s" s="2">
-        <v>70</v>
+        <v>541</v>
       </c>
       <c r="AB206" t="s" s="2">
         <v>70</v>
@@ -24303,13 +24307,13 @@
         <v>70</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>70</v>
@@ -24323,10 +24327,10 @@
         <v>402</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -24337,7 +24341,7 @@
         <v>71</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>70</v>
@@ -24349,19 +24353,17 @@
         <v>70</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>70</v>
@@ -24410,13 +24412,13 @@
         <v>70</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>70</v>
@@ -24430,10 +24432,10 @@
         <v>402</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -24444,7 +24446,7 @@
         <v>71</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>70</v>
@@ -24456,17 +24458,19 @@
         <v>70</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O208" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P208" t="s" s="2">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="Q208" t="s" s="2">
         <v>70</v>
@@ -24515,13 +24519,13 @@
         <v>70</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>70</v>
@@ -24535,10 +24539,10 @@
         <v>402</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -24561,17 +24565,17 @@
         <v>70</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Q209" t="s" s="2">
         <v>70</v>
@@ -24596,13 +24600,13 @@
         <v>70</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>487</v>
+        <v>70</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>488</v>
+        <v>70</v>
       </c>
       <c r="AA209" t="s" s="2">
-        <v>489</v>
+        <v>70</v>
       </c>
       <c r="AB209" t="s" s="2">
         <v>70</v>
@@ -24620,7 +24624,7 @@
         <v>70</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>71</v>
@@ -24640,10 +24644,10 @@
         <v>402</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -24666,17 +24670,17 @@
         <v>70</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>557</v>
+        <v>430</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q210" t="s" s="2">
         <v>70</v>
@@ -24701,13 +24705,13 @@
         <v>70</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>70</v>
+        <v>489</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="AA210" t="s" s="2">
-        <v>70</v>
+        <v>558</v>
       </c>
       <c r="AB210" t="s" s="2">
         <v>70</v>
@@ -24725,7 +24729,7 @@
         <v>70</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>71</v>
@@ -24734,7 +24738,7 @@
         <v>78</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>561</v>
+        <v>70</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>76</v>
@@ -24745,10 +24749,10 @@
         <v>402</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -24771,16 +24775,18 @@
         <v>70</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O211" s="2"/>
+      <c r="P211" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M211" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>70</v>
       </c>
@@ -24828,7 +24834,7 @@
         <v>70</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>71</v>
@@ -24837,7 +24843,7 @@
         <v>78</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>70</v>
+        <v>564</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>76</v>
@@ -24848,10 +24854,10 @@
         <v>402</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -24862,7 +24868,7 @@
         <v>71</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>70</v>
@@ -24874,7 +24880,7 @@
         <v>70</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>124</v>
+        <v>566</v>
       </c>
       <c r="M212" t="s" s="2">
         <v>567</v>
@@ -24882,12 +24888,8 @@
       <c r="N212" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="O212" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="P212" t="s" s="2">
-        <v>570</v>
-      </c>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>70</v>
       </c>
@@ -24935,13 +24937,13 @@
         <v>70</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>70</v>
@@ -24955,10 +24957,10 @@
         <v>402</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -24969,7 +24971,7 @@
         <v>71</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>70</v>
@@ -24981,16 +24983,20 @@
         <v>70</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P213" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="Q213" t="s" s="2">
         <v>70</v>
       </c>
@@ -25038,19 +25044,19 @@
         <v>70</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>82</v>
+        <v>569</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214">
@@ -25058,21 +25064,21 @@
         <v>402</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>70</v>
@@ -25084,17 +25090,15 @@
         <v>70</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O214" s="2"/>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>70</v>
@@ -25143,19 +25147,19 @@
         <v>70</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215">
@@ -25163,14 +25167,14 @@
         <v>402</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
@@ -25183,26 +25187,24 @@
         <v>70</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L215" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P215" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>70</v>
       </c>
@@ -25250,7 +25252,7 @@
         <v>70</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>71</v>
@@ -25270,45 +25272,45 @@
         <v>402</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>575</v>
+        <v>130</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>577</v>
+        <v>88</v>
       </c>
       <c r="P216" t="s" s="2">
-        <v>578</v>
+        <v>132</v>
       </c>
       <c r="Q216" t="s" s="2">
         <v>70</v>
@@ -25333,13 +25335,13 @@
         <v>70</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>435</v>
+        <v>70</v>
       </c>
       <c r="AA216" t="s" s="2">
-        <v>436</v>
+        <v>70</v>
       </c>
       <c r="AB216" t="s" s="2">
         <v>70</v>
@@ -25357,19 +25359,19 @@
         <v>70</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>574</v>
+        <v>133</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217">
@@ -25377,10 +25379,10 @@
         <v>402</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -25388,7 +25390,7 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H217" t="s" s="2">
         <v>78</v>
@@ -25403,19 +25405,19 @@
         <v>70</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="M217" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O217" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N217" t="s" s="2">
+      <c r="P217" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="P217" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="Q217" t="s" s="2">
         <v>70</v>
@@ -25440,13 +25442,13 @@
         <v>70</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>70</v>
+        <v>434</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>70</v>
+        <v>435</v>
       </c>
       <c r="AA217" t="s" s="2">
-        <v>70</v>
+        <v>436</v>
       </c>
       <c r="AB217" t="s" s="2">
         <v>70</v>
@@ -25464,10 +25466,10 @@
         <v>70</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>78</v>
@@ -25484,21 +25486,21 @@
         <v>402</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
-        <v>585</v>
+        <v>70</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>70</v>
@@ -25510,18 +25512,20 @@
         <v>70</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P218" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M218" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>70</v>
       </c>
@@ -25569,13 +25573,13 @@
         <v>70</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>70</v>
@@ -25589,21 +25593,21 @@
         <v>402</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>70</v>
+        <v>588</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>70</v>
@@ -25612,23 +25616,21 @@
         <v>70</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="M219" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N219" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N219" t="s" s="2">
+      <c r="O219" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="O219" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>594</v>
-      </c>
+      <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>70</v>
       </c>
@@ -25676,13 +25678,13 @@
         <v>70</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>70</v>
@@ -25696,10 +25698,10 @@
         <v>402</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -25710,31 +25712,31 @@
         <v>71</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K220" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>124</v>
+        <v>560</v>
       </c>
       <c r="M220" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O220" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="N220" t="s" s="2">
+      <c r="P220" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="P220" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="Q220" t="s" s="2">
         <v>70</v>
@@ -25783,13 +25785,13 @@
         <v>70</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>70</v>
@@ -25803,10 +25805,10 @@
         <v>402</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -25817,28 +25819,32 @@
         <v>71</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="O221" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="P221" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="Q221" t="s" s="2">
         <v>70</v>
       </c>
@@ -25886,19 +25892,19 @@
         <v>70</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ221" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222">
@@ -25906,21 +25912,21 @@
         <v>402</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>70</v>
@@ -25932,17 +25938,15 @@
         <v>70</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>70</v>
@@ -25991,19 +25995,19 @@
         <v>70</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223">
@@ -26011,14 +26015,14 @@
         <v>402</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
@@ -26031,26 +26035,24 @@
         <v>70</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L223" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P223" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>70</v>
       </c>
@@ -26098,7 +26100,7 @@
         <v>70</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>71</v>
@@ -26118,44 +26120,46 @@
         <v>402</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K224" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>604</v>
+        <v>85</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>605</v>
+        <v>130</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>606</v>
+        <v>131</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="P224" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="Q224" t="s" s="2">
         <v>70</v>
       </c>
@@ -26203,19 +26207,19 @@
         <v>70</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>603</v>
+        <v>133</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225">
@@ -26223,10 +26227,10 @@
         <v>402</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -26249,15 +26253,17 @@
         <v>95</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>430</v>
+        <v>607</v>
       </c>
       <c r="M225" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N225" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="N225" t="s" s="2">
+      <c r="O225" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="O225" s="2"/>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
         <v>70</v>
@@ -26282,42 +26288,145 @@
         <v>70</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>487</v>
+        <v>70</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>610</v>
+        <v>70</v>
       </c>
       <c r="AA225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B226" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="AB225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK225" t="s" s="2">
+      <c r="C226" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R226" s="2"/>
+      <c r="S226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK226" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/pythia_ig/temp/pages/all-profiles.xlsx
+++ b/pythia_ig/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7588" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8490" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:45:10-04:00</t>
+    <t>2024-04-30T22:06:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1238,6 +1238,176 @@
     <t>Human-readable name or description of the code.</t>
   </si>
   <si>
+    <t>vax-dose</t>
+  </si>
+  <si>
+    <t>http://fhirfli.dev/fhir/ig/pythia/StructureDefinition/vax-dose</t>
+  </si>
+  <si>
+    <t>VaxDose</t>
+  </si>
+  <si>
+    <t>Dose of a Vaccine</t>
+  </si>
+  <si>
+    <t>Detailed information about each vaccination dose.</t>
+  </si>
+  <si>
+    <t>vax-dose.id</t>
+  </si>
+  <si>
+    <t>vax-dose.extension</t>
+  </si>
+  <si>
+    <t>vax-dose.doseId</t>
+  </si>
+  <si>
+    <t>Unique identifier for the dose.</t>
+  </si>
+  <si>
+    <t>vax-dose.volume</t>
+  </si>
+  <si>
+    <t>Volume of the vaccine administered.</t>
+  </si>
+  <si>
+    <t>vax-dose.dateGiven</t>
+  </si>
+  <si>
+    <t>Date the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>vax-dose.cvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>CVX code for the vaccine administered.</t>
+  </si>
+  <si>
+    <t>vax-dose.mvx</t>
+  </si>
+  <si>
+    <t>vax-dose.antigens</t>
+  </si>
+  <si>
+    <t>List of antigens in the vaccine.</t>
+  </si>
+  <si>
+    <t>vax-dose.dob</t>
+  </si>
+  <si>
+    <t>Date of birth of the recipient.</t>
+  </si>
+  <si>
+    <t>vax-dose.targetDisease</t>
+  </si>
+  <si>
+    <t>Target disease for the vaccine.</t>
+  </si>
+  <si>
+    <t>vax-dose.index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Index of the dose in the vaccination series.</t>
+  </si>
+  <si>
+    <t>vax-dose.inadvertent</t>
+  </si>
+  <si>
+    <t>If the vaccine was administered inadvertently.</t>
+  </si>
+  <si>
+    <t>vax-dose.validAgeReason</t>
+  </si>
+  <si>
+    <t>A reason related to the valid age for vaccine administration.</t>
+  </si>
+  <si>
+    <t>vax-dose.preferredInterval</t>
+  </si>
+  <si>
+    <t>If there was a preferred interval followed.</t>
+  </si>
+  <si>
+    <t>vax-dose.preferredIntervalReason</t>
+  </si>
+  <si>
+    <t>Reason why a preferred interval was followed.</t>
+  </si>
+  <si>
+    <t>vax-dose.allowedInterval</t>
+  </si>
+  <si>
+    <t>If the interval was allowed despite being non-standard.</t>
+  </si>
+  <si>
+    <t>vax-dose.allowedIntervalReason</t>
+  </si>
+  <si>
+    <t>Reason why an interval was allowed despite being non-standard.</t>
+  </si>
+  <si>
+    <t>vax-dose.conflict</t>
+  </si>
+  <si>
+    <t>If there was a conflict with another vaccine.</t>
+  </si>
+  <si>
+    <t>vax-dose.conflictReason</t>
+  </si>
+  <si>
+    <t>Reason for the conflict.</t>
+  </si>
+  <si>
+    <t>vax-dose.preferredVaccine</t>
+  </si>
+  <si>
+    <t>If this vaccine is preferred.</t>
+  </si>
+  <si>
+    <t>vax-dose.preferredVaccineReason</t>
+  </si>
+  <si>
+    <t>Reason why this vaccine is preferred.</t>
+  </si>
+  <si>
+    <t>vax-dose.allowedVaccine</t>
+  </si>
+  <si>
+    <t>If this vaccine was allowed.</t>
+  </si>
+  <si>
+    <t>vax-dose.allowedVaccineReason</t>
+  </si>
+  <si>
+    <t>Reason why this vaccine was allowed.</t>
+  </si>
+  <si>
+    <t>vax-dose.evalStatus</t>
+  </si>
+  <si>
+    <t>Evaluation status of the vaccination.</t>
+  </si>
+  <si>
+    <t>vax-dose.evalReason</t>
+  </si>
+  <si>
+    <t>Reason for the evaluation status.</t>
+  </si>
+  <si>
+    <t>vax-dose.targetDoseSatisfied</t>
+  </si>
+  <si>
+    <t>Index of the target dose satisfied by this administration.</t>
+  </si>
+  <si>
     <t>vax-patient</t>
   </si>
   <si>
@@ -1324,10 +1494,6 @@
   </si>
   <si>
     <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
   </si>
   <si>
     <t>Language of the resource content</t>
@@ -2043,7 +2209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2802,7 +2968,7 @@
         <v>27</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99">
@@ -2810,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>408</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -2826,6 +2992,160 @@
         <v>32</v>
       </c>
       <c r="B101" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>287</v>
       </c>
     </row>
@@ -2836,7 +3156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK226"/>
+  <dimension ref="A1:AK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -21583,14 +21903,14 @@
         <v>402</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>409</v>
+        <v>70</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" t="s" s="2">
@@ -21612,10 +21932,10 @@
         <v>73</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -21666,7 +21986,7 @@
         <v>70</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>71</v>
@@ -21675,10 +21995,10 @@
         <v>72</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182">
@@ -21686,10 +22006,10 @@
         <v>402</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -21709,20 +22029,18 @@
         <v>70</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
         <v>70</v>
@@ -21771,7 +22089,7 @@
         <v>70</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>71</v>
@@ -21791,21 +22109,21 @@
         <v>402</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>70</v>
@@ -21814,18 +22132,20 @@
         <v>70</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>421</v>
+        <v>86</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O183" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>70</v>
@@ -21862,31 +22182,31 @@
         <v>70</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>423</v>
+        <v>92</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184">
@@ -21894,10 +22214,10 @@
         <v>402</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -21905,7 +22225,7 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>78</v>
@@ -21914,23 +22234,21 @@
         <v>70</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>70</v>
@@ -21979,10 +22297,10 @@
         <v>70</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>78</v>
@@ -21991,7 +22309,7 @@
         <v>70</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="185">
@@ -21999,10 +22317,10 @@
         <v>402</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22025,17 +22343,15 @@
         <v>70</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
         <v>70</v>
@@ -22060,13 +22376,13 @@
         <v>70</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>435</v>
+        <v>70</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>436</v>
+        <v>70</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>70</v>
@@ -22084,7 +22400,7 @@
         <v>70</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>71</v>
@@ -22096,7 +22412,7 @@
         <v>70</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186">
@@ -22104,18 +22420,18 @@
         <v>402</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>439</v>
+        <v>70</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H186" t="s" s="2">
         <v>78</v>
@@ -22130,17 +22446,15 @@
         <v>70</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>440</v>
+        <v>299</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="O186" s="2"/>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
         <v>70</v>
@@ -22189,10 +22503,10 @@
         <v>70</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI186" t="s" s="2">
         <v>78</v>
@@ -22201,7 +22515,7 @@
         <v>70</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187">
@@ -22209,21 +22523,21 @@
         <v>402</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>446</v>
+        <v>70</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>70</v>
@@ -22235,17 +22549,15 @@
         <v>70</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
         <v>70</v>
@@ -22294,13 +22606,13 @@
         <v>70</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>70</v>
@@ -22314,10 +22626,10 @@
         <v>402</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -22328,7 +22640,7 @@
         <v>71</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>70</v>
@@ -22340,13 +22652,13 @@
         <v>70</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -22385,29 +22697,31 @@
         <v>70</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AD188" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AE188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189">
@@ -22415,14 +22729,12 @@
         <v>402</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="D189" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
         <v>70</v>
       </c>
@@ -22431,7 +22743,7 @@
         <v>71</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I189" t="s" s="2">
         <v>70</v>
@@ -22443,13 +22755,13 @@
         <v>70</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>456</v>
+        <v>119</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>285</v>
+        <v>420</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
@@ -22500,7 +22812,7 @@
         <v>70</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>71</v>
@@ -22509,10 +22821,10 @@
         <v>72</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="190">
@@ -22520,46 +22832,42 @@
         <v>402</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K190" t="s" s="2">
         <v>70</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P190" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
         <v>70</v>
       </c>
@@ -22607,19 +22915,19 @@
         <v>70</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191">
@@ -22627,10 +22935,10 @@
         <v>402</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -22641,7 +22949,7 @@
         <v>71</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I191" t="s" s="2">
         <v>70</v>
@@ -22650,21 +22958,19 @@
         <v>70</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="O191" s="2"/>
-      <c r="P191" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
         <v>70</v>
       </c>
@@ -22712,19 +23018,19 @@
         <v>70</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192">
@@ -22732,10 +23038,10 @@
         <v>402</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -22752,32 +23058,26 @@
         <v>70</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>202</v>
+        <v>426</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="R192" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="R192" s="2"/>
       <c r="S192" t="s" s="2">
         <v>70</v>
       </c>
@@ -22821,7 +23121,7 @@
         <v>70</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>71</v>
@@ -22833,7 +23133,7 @@
         <v>70</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193">
@@ -22841,10 +23141,10 @@
         <v>402</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -22855,7 +23155,7 @@
         <v>71</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>70</v>
@@ -22864,23 +23164,19 @@
         <v>70</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>473</v>
+        <v>202</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P193" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
         <v>70</v>
       </c>
@@ -22928,19 +23224,19 @@
         <v>70</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -22948,10 +23244,10 @@
         <v>402</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -22962,7 +23258,7 @@
         <v>71</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>70</v>
@@ -22971,23 +23267,19 @@
         <v>70</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="P194" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
         <v>70</v>
       </c>
@@ -23035,19 +23327,19 @@
         <v>70</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195">
@@ -23055,10 +23347,10 @@
         <v>402</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -23078,23 +23370,19 @@
         <v>70</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P195" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>70</v>
       </c>
@@ -23118,11 +23406,13 @@
         <v>70</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Z195" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AA195" t="s" s="2">
-        <v>490</v>
+        <v>70</v>
       </c>
       <c r="AB195" t="s" s="2">
         <v>70</v>
@@ -23140,7 +23430,7 @@
         <v>70</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>71</v>
@@ -23152,7 +23442,7 @@
         <v>70</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196">
@@ -23160,10 +23450,10 @@
         <v>402</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -23183,23 +23473,19 @@
         <v>70</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P196" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
         <v>70</v>
       </c>
@@ -23247,7 +23533,7 @@
         <v>70</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>71</v>
@@ -23259,7 +23545,7 @@
         <v>70</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197">
@@ -23267,10 +23553,10 @@
         <v>402</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -23287,26 +23573,22 @@
         <v>70</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O197" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P197" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
         <v>70</v>
       </c>
@@ -23354,7 +23636,7 @@
         <v>70</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>71</v>
@@ -23366,7 +23648,7 @@
         <v>70</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198">
@@ -23374,10 +23656,10 @@
         <v>402</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -23388,7 +23670,7 @@
         <v>71</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I198" t="s" s="2">
         <v>70</v>
@@ -23397,23 +23679,19 @@
         <v>70</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P198" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
         <v>70</v>
       </c>
@@ -23461,19 +23739,19 @@
         <v>70</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199">
@@ -23481,10 +23759,10 @@
         <v>402</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23507,18 +23785,16 @@
         <v>70</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>510</v>
+        <v>441</v>
       </c>
       <c r="O199" s="2"/>
-      <c r="P199" t="s" s="2">
-        <v>511</v>
-      </c>
+      <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
         <v>70</v>
       </c>
@@ -23542,13 +23818,13 @@
         <v>70</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>512</v>
+        <v>70</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>513</v>
+        <v>70</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>514</v>
+        <v>70</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>70</v>
@@ -23566,7 +23842,7 @@
         <v>70</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>71</v>
@@ -23578,7 +23854,7 @@
         <v>70</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200">
@@ -23586,10 +23862,10 @@
         <v>402</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -23612,20 +23888,16 @@
         <v>70</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="P200" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
         <v>70</v>
       </c>
@@ -23673,7 +23945,7 @@
         <v>70</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>71</v>
@@ -23685,7 +23957,7 @@
         <v>70</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201">
@@ -23693,10 +23965,10 @@
         <v>402</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>521</v>
+        <v>444</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>521</v>
+        <v>444</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -23707,7 +23979,7 @@
         <v>71</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>70</v>
@@ -23719,20 +23991,16 @@
         <v>70</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>522</v>
+        <v>202</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="P201" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>70</v>
       </c>
@@ -23780,19 +24048,19 @@
         <v>70</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>521</v>
+        <v>444</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202">
@@ -23800,10 +24068,10 @@
         <v>402</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -23814,7 +24082,7 @@
         <v>71</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>70</v>
@@ -23826,20 +24094,16 @@
         <v>70</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>124</v>
+        <v>416</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>528</v>
+        <v>447</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="P202" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
         <v>70</v>
       </c>
@@ -23887,19 +24151,19 @@
         <v>70</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>532</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203">
@@ -23907,10 +24171,10 @@
         <v>402</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>533</v>
+        <v>448</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>533</v>
+        <v>448</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -23933,13 +24197,13 @@
         <v>70</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
@@ -23990,7 +24254,7 @@
         <v>70</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>71</v>
@@ -24010,21 +24274,21 @@
         <v>402</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>70</v>
@@ -24036,17 +24300,15 @@
         <v>70</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>85</v>
+        <v>416</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>86</v>
+        <v>451</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="O204" s="2"/>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>70</v>
@@ -24095,19 +24357,19 @@
         <v>70</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>92</v>
+        <v>450</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205">
@@ -24115,46 +24377,42 @@
         <v>402</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>85</v>
+        <v>416</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>130</v>
+        <v>453</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P205" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>70</v>
       </c>
@@ -24202,19 +24460,19 @@
         <v>70</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206">
@@ -24222,10 +24480,10 @@
         <v>402</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -24236,7 +24494,7 @@
         <v>71</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>70</v>
@@ -24248,18 +24506,16 @@
         <v>70</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>537</v>
+        <v>455</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="O206" s="2"/>
-      <c r="P206" t="s" s="2">
-        <v>539</v>
-      </c>
+      <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>70</v>
       </c>
@@ -24283,13 +24539,13 @@
         <v>70</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>512</v>
+        <v>70</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>540</v>
+        <v>70</v>
       </c>
       <c r="AA206" t="s" s="2">
-        <v>541</v>
+        <v>70</v>
       </c>
       <c r="AB206" t="s" s="2">
         <v>70</v>
@@ -24307,19 +24563,19 @@
         <v>70</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207">
@@ -24327,10 +24583,10 @@
         <v>402</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>542</v>
+        <v>456</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>542</v>
+        <v>456</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -24353,18 +24609,16 @@
         <v>70</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>543</v>
+        <v>457</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="O207" s="2"/>
-      <c r="P207" t="s" s="2">
-        <v>545</v>
-      </c>
+      <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
         <v>70</v>
       </c>
@@ -24412,7 +24666,7 @@
         <v>70</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>542</v>
+        <v>456</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>71</v>
@@ -24424,22 +24678,22 @@
         <v>70</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>546</v>
+        <v>463</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>546</v>
+        <v>463</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>70</v>
+        <v>465</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
@@ -24458,20 +24712,16 @@
         <v>70</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>479</v>
+        <v>73</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>547</v>
+        <v>466</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="P208" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
         <v>70</v>
       </c>
@@ -24519,7 +24769,7 @@
         <v>70</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>546</v>
+        <v>463</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>71</v>
@@ -24531,18 +24781,18 @@
         <v>70</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>76</v>
+        <v>468</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -24562,21 +24812,21 @@
         <v>70</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>551</v>
+        <v>471</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O209" s="2"/>
-      <c r="P209" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
         <v>70</v>
       </c>
@@ -24624,7 +24874,7 @@
         <v>70</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>71</v>
@@ -24636,18 +24886,18 @@
         <v>70</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>554</v>
+        <v>475</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>554</v>
+        <v>475</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -24667,21 +24917,19 @@
         <v>70</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="O210" s="2"/>
-      <c r="P210" t="s" s="2">
-        <v>556</v>
-      </c>
+      <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>70</v>
       </c>
@@ -24705,13 +24953,13 @@
         <v>70</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>489</v>
+        <v>70</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>557</v>
+        <v>70</v>
       </c>
       <c r="AA210" t="s" s="2">
-        <v>558</v>
+        <v>70</v>
       </c>
       <c r="AB210" t="s" s="2">
         <v>70</v>
@@ -24729,7 +24977,7 @@
         <v>70</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>71</v>
@@ -24746,13 +24994,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -24769,24 +25017,24 @@
         <v>70</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>560</v>
+        <v>294</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>561</v>
+        <v>481</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O211" s="2"/>
-      <c r="P211" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>70</v>
       </c>
@@ -24834,7 +25082,7 @@
         <v>70</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>559</v>
+        <v>484</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>71</v>
@@ -24843,7 +25091,7 @@
         <v>78</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>564</v>
+        <v>70</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>76</v>
@@ -24851,13 +25099,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -24880,15 +25128,17 @@
         <v>70</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>566</v>
+        <v>416</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O212" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>70</v>
@@ -24913,13 +25163,13 @@
         <v>70</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>70</v>
+        <v>489</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>70</v>
+        <v>490</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>70</v>
+        <v>491</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>70</v>
@@ -24937,7 +25187,7 @@
         <v>70</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>565</v>
+        <v>492</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>71</v>
@@ -24954,24 +25204,24 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>70</v>
+        <v>494</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>70</v>
@@ -24983,20 +25233,18 @@
         <v>70</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>124</v>
+        <v>495</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>571</v>
+        <v>497</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P213" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>70</v>
       </c>
@@ -25044,13 +25292,13 @@
         <v>70</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>569</v>
+        <v>499</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>70</v>
@@ -25061,24 +25309,24 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>574</v>
+        <v>500</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>574</v>
+        <v>500</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>70</v>
+        <v>501</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>70</v>
@@ -25090,15 +25338,17 @@
         <v>70</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>70</v>
@@ -25147,13 +25397,13 @@
         <v>70</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>70</v>
@@ -25164,17 +25414,17 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
@@ -25196,14 +25446,12 @@
         <v>85</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O215" s="2"/>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>70</v>
@@ -25240,19 +25488,17 @@
         <v>70</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD215" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AD215" s="2"/>
       <c r="AE215" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>71</v>
@@ -25269,49 +25515,47 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="E216" t="s" s="2">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>85</v>
+        <v>511</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P216" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
         <v>70</v>
       </c>
@@ -25359,7 +25603,7 @@
         <v>70</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>133</v>
+        <v>508</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>71</v>
@@ -25368,7 +25612,7 @@
         <v>72</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>93</v>
@@ -25376,48 +25620,48 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K217" t="s" s="2">
         <v>70</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>580</v>
+        <v>88</v>
       </c>
       <c r="P217" t="s" s="2">
-        <v>581</v>
+        <v>132</v>
       </c>
       <c r="Q217" t="s" s="2">
         <v>70</v>
@@ -25442,13 +25686,13 @@
         <v>70</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>435</v>
+        <v>70</v>
       </c>
       <c r="AA217" t="s" s="2">
-        <v>436</v>
+        <v>70</v>
       </c>
       <c r="AB217" t="s" s="2">
         <v>70</v>
@@ -25466,30 +25710,30 @@
         <v>70</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -25500,7 +25744,7 @@
         <v>71</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>70</v>
@@ -25509,22 +25753,20 @@
         <v>70</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>202</v>
+        <v>517</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>583</v>
+        <v>518</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="Q218" t="s" s="2">
         <v>70</v>
@@ -25573,13 +25815,13 @@
         <v>70</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>70</v>
@@ -25590,51 +25832,55 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>587</v>
+        <v>521</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>587</v>
+        <v>521</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>588</v>
+        <v>70</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>589</v>
+        <v>202</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="P219" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="Q219" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="R219" s="2"/>
+      <c r="R219" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="S219" t="s" s="2">
         <v>70</v>
       </c>
@@ -25678,13 +25924,13 @@
         <v>70</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>587</v>
+        <v>521</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>70</v>
@@ -25695,13 +25941,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -25712,7 +25958,7 @@
         <v>71</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>70</v>
@@ -25724,19 +25970,19 @@
         <v>95</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>595</v>
+        <v>530</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>596</v>
+        <v>531</v>
       </c>
       <c r="P220" t="s" s="2">
-        <v>597</v>
+        <v>532</v>
       </c>
       <c r="Q220" t="s" s="2">
         <v>70</v>
@@ -25785,13 +26031,13 @@
         <v>70</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>70</v>
@@ -25802,13 +26048,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>598</v>
+        <v>533</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>598</v>
+        <v>533</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -25825,25 +26071,25 @@
         <v>70</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K221" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>124</v>
+        <v>534</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>599</v>
+        <v>535</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="P221" t="s" s="2">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="Q221" t="s" s="2">
         <v>70</v>
@@ -25892,7 +26138,7 @@
         <v>70</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>598</v>
+        <v>533</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>71</v>
@@ -25909,13 +26155,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -25935,19 +26181,23 @@
         <v>70</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O222" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="P222" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="Q222" t="s" s="2">
         <v>70</v>
       </c>
@@ -25971,13 +26221,11 @@
         <v>70</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="Z222" s="2"/>
       <c r="AA222" t="s" s="2">
-        <v>70</v>
+        <v>545</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>70</v>
@@ -25995,7 +26243,7 @@
         <v>70</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>71</v>
@@ -26007,29 +26255,29 @@
         <v>70</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
         <v>70</v>
@@ -26038,21 +26286,23 @@
         <v>70</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>86</v>
+        <v>547</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P223" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="P223" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="Q223" t="s" s="2">
         <v>70</v>
       </c>
@@ -26100,41 +26350,41 @@
         <v>70</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>92</v>
+        <v>546</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>70</v>
@@ -26146,19 +26396,19 @@
         <v>95</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>85</v>
+        <v>552</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>130</v>
+        <v>553</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>131</v>
+        <v>554</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>88</v>
+        <v>555</v>
       </c>
       <c r="P224" t="s" s="2">
-        <v>132</v>
+        <v>556</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>70</v>
@@ -26207,30 +26457,30 @@
         <v>70</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>133</v>
+        <v>551</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -26238,10 +26488,10 @@
       </c>
       <c r="F225" s="2"/>
       <c r="G225" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>70</v>
@@ -26253,18 +26503,20 @@
         <v>95</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="P225" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="P225" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="Q225" t="s" s="2">
         <v>70</v>
       </c>
@@ -26312,13 +26564,13 @@
         <v>70</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>70</v>
@@ -26329,13 +26581,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -26343,7 +26595,7 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>78</v>
@@ -26355,19 +26607,21 @@
         <v>70</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>430</v>
+        <v>119</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>612</v>
+        <v>564</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>613</v>
+        <v>565</v>
       </c>
       <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
+      <c r="P226" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="Q226" t="s" s="2">
         <v>70</v>
       </c>
@@ -26391,42 +26645,2891 @@
         <v>70</v>
       </c>
       <c r="Y226" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="P227" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Q227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R227" s="2"/>
+      <c r="S227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P228" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Q228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R228" s="2"/>
+      <c r="S228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Q229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R229" s="2"/>
+      <c r="S229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R230" s="2"/>
+      <c r="S230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P231" s="2"/>
+      <c r="Q231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R231" s="2"/>
+      <c r="S231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Q232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R232" s="2"/>
+      <c r="S232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O233" s="2"/>
+      <c r="P233" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Q233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R233" s="2"/>
+      <c r="S233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Q234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R234" s="2"/>
+      <c r="S234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="P235" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R235" s="2"/>
+      <c r="S235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O236" s="2"/>
+      <c r="P236" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="Q236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R236" s="2"/>
+      <c r="S236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O237" s="2"/>
+      <c r="P237" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="Q237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R237" s="2"/>
+      <c r="S237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="Q238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R238" s="2"/>
+      <c r="S238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AK238" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R239" s="2"/>
+      <c r="S239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="P240" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Q240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R240" s="2"/>
+      <c r="S240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R241" s="2"/>
+      <c r="S241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P242" s="2"/>
+      <c r="Q242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R242" s="2"/>
+      <c r="S242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK242" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Q243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R243" s="2"/>
+      <c r="S243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O244" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="P244" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Q244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R244" s="2"/>
+      <c r="S244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y244" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Z226" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK226" t="s" s="2">
+      <c r="Z244" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK244" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="Q245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R245" s="2"/>
+      <c r="S245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK245" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O246" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="P246" s="2"/>
+      <c r="Q246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R246" s="2"/>
+      <c r="S246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK246" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K247" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="O247" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="P247" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Q247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R247" s="2"/>
+      <c r="S247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG247" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AH247" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ247" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK247" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C248" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F248" s="2"/>
+      <c r="G248" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J248" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K248" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N248" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O248" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="P248" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Q248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R248" s="2"/>
+      <c r="S248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG248" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AH248" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ248" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK248" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F249" s="2"/>
+      <c r="G249" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R249" s="2"/>
+      <c r="S249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG249" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH249" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ249" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK249" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F250" s="2"/>
+      <c r="G250" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O250" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P250" s="2"/>
+      <c r="Q250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R250" s="2"/>
+      <c r="S250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG250" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH250" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ250" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK250" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F251" s="2"/>
+      <c r="G251" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J251" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L251" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N251" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O251" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P251" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Q251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R251" s="2"/>
+      <c r="S251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG251" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH251" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ251" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK251" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C252" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F252" s="2"/>
+      <c r="G252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K252" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L252" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M252" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N252" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="O252" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="P252" s="2"/>
+      <c r="Q252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R252" s="2"/>
+      <c r="S252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG252" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AH252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ252" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK252" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C253" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F253" s="2"/>
+      <c r="G253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K253" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L253" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M253" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N253" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="O253" s="2"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R253" s="2"/>
+      <c r="S253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y253" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AA253" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AB253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG253" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AH253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ253" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK253" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/pythia_ig/temp/pages/all-profiles.xlsx
+++ b/pythia_ig/temp/pages/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T22:06:35-04:00</t>
+    <t>2024-05-01T10:29:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
